--- a/escrever.xlsx
+++ b/escrever.xlsx
@@ -26,27 +26,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="2">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00bdffd8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00ffbdbd"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00bde8ff"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -61,11 +46,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -442,7 +424,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Rank</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -470,7 +452,7 @@
       <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>Ciências Biológicas</t>
         </is>
@@ -481,17 +463,17 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2614.76</v>
+        <v>2734.5</v>
       </c>
       <c r="E2" t="n">
-        <v>4147.74</v>
+        <v>5029.35</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>Ciências Biológicas</t>
         </is>
@@ -502,17 +484,17 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>3347.36</v>
+        <v>3564.43</v>
       </c>
       <c r="E3" t="n">
-        <v>5309.85</v>
+        <v>7644.81</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>Ciências Biológicas</t>
         </is>
@@ -523,17 +505,17 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>4435.38</v>
+        <v>4633.73</v>
       </c>
       <c r="E4" t="n">
-        <v>7035.74</v>
+        <v>9771.74</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>Ciências Biológicas</t>
         </is>
@@ -544,17 +526,17 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>3903.59</v>
+        <v>4235.16</v>
       </c>
       <c r="E5" t="n">
-        <v>6192.18</v>
+        <v>10456.35</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>Ciências Biológicas</t>
         </is>
@@ -565,17 +547,17 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>3928.74</v>
+        <v>4118.84</v>
       </c>
       <c r="E6" t="n">
-        <v>6232.08</v>
+        <v>8018.42</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>Ciências Biológicas</t>
         </is>
@@ -586,17 +568,17 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>6495.54</v>
+        <v>7070.51</v>
       </c>
       <c r="E7" t="n">
-        <v>10303.74</v>
+        <v>16776.48</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="inlineStr">
+      <c r="B8" t="inlineStr">
         <is>
           <t>Ciências Biológicas</t>
         </is>
@@ -607,17 +589,17 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>3371.43</v>
+        <v>3967.18</v>
       </c>
       <c r="E8" t="n">
-        <v>5348.02</v>
+        <v>9649.51</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>Ciências Biológicas</t>
         </is>
@@ -628,17 +610,17 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>6260.38</v>
+        <v>6940.4</v>
       </c>
       <c r="E9" t="n">
-        <v>9930.700000000001</v>
+        <v>14929.33</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="inlineStr">
+      <c r="B10" t="inlineStr">
         <is>
           <t>Ciências Biológicas</t>
         </is>
@@ -649,17 +631,17 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>2625.25</v>
+        <v>2516.33</v>
       </c>
       <c r="E10" t="n">
-        <v>4164.37</v>
+        <v>4754.5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>Ciências Biológicas</t>
         </is>
@@ -670,17 +652,17 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>2636.01</v>
+        <v>3098.47</v>
       </c>
       <c r="E11" t="n">
-        <v>4181.45</v>
+        <v>5990.59</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>Ciências Biológicas</t>
         </is>
@@ -691,17 +673,17 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>6561.65</v>
+        <v>6993.09</v>
       </c>
       <c r="E12" t="n">
-        <v>10408.6</v>
+        <v>15520.93</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="inlineStr">
+      <c r="B13" t="inlineStr">
         <is>
           <t>Ciências Biológicas</t>
         </is>
@@ -712,17 +694,17 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>3733.57</v>
+        <v>3909.56</v>
       </c>
       <c r="E13" t="n">
-        <v>5922.48</v>
+        <v>9134.940000000001</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="1" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>Ciências Biológicas</t>
         </is>
@@ -733,17 +715,17 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>2897.78</v>
+        <v>3060.35</v>
       </c>
       <c r="E14" t="n">
-        <v>4596.69</v>
+        <v>5577.65</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="1" t="inlineStr">
+      <c r="B15" t="inlineStr">
         <is>
           <t>Ciências Biológicas</t>
         </is>
@@ -754,17 +736,17 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>3824.51</v>
+        <v>4195.72</v>
       </c>
       <c r="E15" t="n">
-        <v>6066.73</v>
+        <v>8522.58</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="1" t="inlineStr">
+      <c r="B16" t="inlineStr">
         <is>
           <t>Ciências Biológicas</t>
         </is>
@@ -775,17 +757,17 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>2882.71</v>
+        <v>3086.25</v>
       </c>
       <c r="E16" t="n">
-        <v>4572.77</v>
+        <v>6077.75</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="1" t="inlineStr">
+      <c r="B17" t="inlineStr">
         <is>
           <t>Ciências Biológicas</t>
         </is>
@@ -796,17 +778,17 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>3689.53</v>
+        <v>3839.5</v>
       </c>
       <c r="E17" t="n">
-        <v>5852.63</v>
+        <v>8873.389999999999</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="2" t="inlineStr">
+      <c r="B18" t="inlineStr">
         <is>
           <t>Ciências Exatas</t>
         </is>
@@ -817,17 +799,17 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>11189.87</v>
+        <v>13156.35</v>
       </c>
       <c r="E18" t="n">
-        <v>17750.24</v>
+        <v>25979.77</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="2" t="inlineStr">
+      <c r="B19" t="inlineStr">
         <is>
           <t>Ciências Exatas</t>
         </is>
@@ -838,17 +820,17 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>6780.97</v>
+        <v>7341.43</v>
       </c>
       <c r="E19" t="n">
-        <v>10756.51</v>
+        <v>16796.78</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="2" t="inlineStr">
+      <c r="B20" t="inlineStr">
         <is>
           <t>Ciências Exatas</t>
         </is>
@@ -859,17 +841,17 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>6523.5</v>
+        <v>6286.7</v>
       </c>
       <c r="E20" t="n">
-        <v>10348.09</v>
+        <v>14966.63</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="2" t="inlineStr">
+      <c r="B21" t="inlineStr">
         <is>
           <t>Ciências Exatas</t>
         </is>
@@ -880,17 +862,17 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>8630.450000000001</v>
+        <v>9466.9</v>
       </c>
       <c r="E21" t="n">
-        <v>13690.3</v>
+        <v>20006.22</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="2" t="inlineStr">
+      <c r="B22" t="inlineStr">
         <is>
           <t>Ciências Exatas</t>
         </is>
@@ -901,17 +883,17 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>4641.06</v>
+        <v>4607.02</v>
       </c>
       <c r="E22" t="n">
-        <v>7362.01</v>
+        <v>11329.85</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="2" t="inlineStr">
+      <c r="B23" t="inlineStr">
         <is>
           <t>Ciências Exatas</t>
         </is>
@@ -922,17 +904,17 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>3174.5</v>
+        <v>3776.18</v>
       </c>
       <c r="E23" t="n">
-        <v>5035.63</v>
+        <v>8527.860000000001</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>23</v>
       </c>
-      <c r="B24" s="2" t="inlineStr">
+      <c r="B24" t="inlineStr">
         <is>
           <t>Ciências Exatas</t>
         </is>
@@ -943,17 +925,17 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>8591.23</v>
+        <v>9078.719999999999</v>
       </c>
       <c r="E24" t="n">
-        <v>13628.09</v>
+        <v>18250.05</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>24</v>
       </c>
-      <c r="B25" s="2" t="inlineStr">
+      <c r="B25" t="inlineStr">
         <is>
           <t>Ciências Exatas</t>
         </is>
@@ -964,17 +946,17 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>11366.54</v>
+        <v>11634.94</v>
       </c>
       <c r="E25" t="n">
-        <v>18030.5</v>
+        <v>26197.29</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>25</v>
       </c>
-      <c r="B26" s="2" t="inlineStr">
+      <c r="B26" t="inlineStr">
         <is>
           <t>Ciências Exatas</t>
         </is>
@@ -985,17 +967,17 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>9100.049999999999</v>
+        <v>9783.870000000001</v>
       </c>
       <c r="E26" t="n">
-        <v>14435.22</v>
+        <v>19417.68</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>26</v>
       </c>
-      <c r="B27" s="2" t="inlineStr">
+      <c r="B27" t="inlineStr">
         <is>
           <t>Ciências Exatas</t>
         </is>
@@ -1006,17 +988,17 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>8398.299999999999</v>
+        <v>9051.559999999999</v>
       </c>
       <c r="E27" t="n">
-        <v>13322.04</v>
+        <v>18260.53</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>27</v>
       </c>
-      <c r="B28" s="2" t="inlineStr">
+      <c r="B28" t="inlineStr">
         <is>
           <t>Ciências Exatas</t>
         </is>
@@ -1027,17 +1009,17 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>8167.81</v>
+        <v>8759.24</v>
       </c>
       <c r="E28" t="n">
-        <v>12956.41</v>
+        <v>17490.97</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>28</v>
       </c>
-      <c r="B29" s="2" t="inlineStr">
+      <c r="B29" t="inlineStr">
         <is>
           <t>Ciências Exatas</t>
         </is>
@@ -1048,17 +1030,17 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>6260.38</v>
+        <v>6940.4</v>
       </c>
       <c r="E29" t="n">
-        <v>9930.700000000001</v>
+        <v>14929.33</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>29</v>
       </c>
-      <c r="B30" s="2" t="inlineStr">
+      <c r="B30" t="inlineStr">
         <is>
           <t>Ciências Exatas</t>
         </is>
@@ -1069,17 +1051,17 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>9302.32</v>
+        <v>8807.59</v>
       </c>
       <c r="E30" t="n">
-        <v>14756.07</v>
+        <v>17468.04</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>30</v>
       </c>
-      <c r="B31" s="2" t="inlineStr">
+      <c r="B31" t="inlineStr">
         <is>
           <t>Ciências Exatas</t>
         </is>
@@ -1090,17 +1072,17 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>8879.93</v>
+        <v>9365.6</v>
       </c>
       <c r="E31" t="n">
-        <v>14086.05</v>
+        <v>20304.35</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>31</v>
       </c>
-      <c r="B32" s="2" t="inlineStr">
+      <c r="B32" t="inlineStr">
         <is>
           <t>Ciências Exatas</t>
         </is>
@@ -1111,17 +1093,17 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>6731.19</v>
+        <v>7233.26</v>
       </c>
       <c r="E32" t="n">
-        <v>10677.55</v>
+        <v>16510.59</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>32</v>
       </c>
-      <c r="B33" s="2" t="inlineStr">
+      <c r="B33" t="inlineStr">
         <is>
           <t>Ciências Exatas</t>
         </is>
@@ -1132,17 +1114,17 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>6062.02</v>
+        <v>5770.06</v>
       </c>
       <c r="E33" t="n">
-        <v>9616.049999999999</v>
+        <v>14201.01</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>33</v>
       </c>
-      <c r="B34" s="2" t="inlineStr">
+      <c r="B34" t="inlineStr">
         <is>
           <t>Ciências Exatas</t>
         </is>
@@ -1153,17 +1135,17 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>4554.25</v>
+        <v>4800.76</v>
       </c>
       <c r="E34" t="n">
-        <v>7224.31</v>
+        <v>12290.41</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>34</v>
       </c>
-      <c r="B35" s="2" t="inlineStr">
+      <c r="B35" t="inlineStr">
         <is>
           <t>Ciências Exatas</t>
         </is>
@@ -1174,17 +1156,17 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>8844.799999999999</v>
+        <v>9525</v>
       </c>
       <c r="E35" t="n">
-        <v>14030.32</v>
+        <v>19273.11</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>35</v>
       </c>
-      <c r="B36" s="2" t="inlineStr">
+      <c r="B36" t="inlineStr">
         <is>
           <t>Ciências Exatas</t>
         </is>
@@ -1195,17 +1177,17 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>7422.04</v>
+        <v>7624.84</v>
       </c>
       <c r="E36" t="n">
-        <v>11773.42</v>
+        <v>16305.05</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>36</v>
       </c>
-      <c r="B37" s="2" t="inlineStr">
+      <c r="B37" t="inlineStr">
         <is>
           <t>Ciências Exatas</t>
         </is>
@@ -1216,17 +1198,17 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>6159.9</v>
+        <v>6563.91</v>
       </c>
       <c r="E37" t="n">
-        <v>9771.309999999999</v>
+        <v>13604.59</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>37</v>
       </c>
-      <c r="B38" s="2" t="inlineStr">
+      <c r="B38" t="inlineStr">
         <is>
           <t>Ciências Exatas</t>
         </is>
@@ -1237,17 +1219,17 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>4327.89</v>
+        <v>4804.45</v>
       </c>
       <c r="E38" t="n">
-        <v>6865.24</v>
+        <v>12209.86</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>38</v>
       </c>
-      <c r="B39" s="3" t="inlineStr">
+      <c r="B39" t="inlineStr">
         <is>
           <t>Ciências Humanas</t>
         </is>
@@ -1258,17 +1240,17 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>4456</v>
+        <v>4743.88</v>
       </c>
       <c r="E39" t="n">
-        <v>7068.45</v>
+        <v>11816.31</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>39</v>
       </c>
-      <c r="B40" s="3" t="inlineStr">
+      <c r="B40" t="inlineStr">
         <is>
           <t>Ciências Humanas</t>
         </is>
@@ -1279,17 +1261,17 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>4135.71</v>
+        <v>4350.26</v>
       </c>
       <c r="E40" t="n">
-        <v>6560.38</v>
+        <v>10473.97</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>40</v>
       </c>
-      <c r="B41" s="3" t="inlineStr">
+      <c r="B41" t="inlineStr">
         <is>
           <t>Ciências Humanas</t>
         </is>
@@ -1300,17 +1282,17 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>5129.93</v>
+        <v>5598.8</v>
       </c>
       <c r="E41" t="n">
-        <v>8137.5</v>
+        <v>13748.27</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>41</v>
       </c>
-      <c r="B42" s="3" t="inlineStr">
+      <c r="B42" t="inlineStr">
         <is>
           <t>Ciências Humanas</t>
         </is>
@@ -1321,17 +1303,17 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1963.68</v>
+        <v>2133.98</v>
       </c>
       <c r="E42" t="n">
-        <v>3114.94</v>
+        <v>4364.36</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>42</v>
       </c>
-      <c r="B43" s="3" t="inlineStr">
+      <c r="B43" t="inlineStr">
         <is>
           <t>Ciências Humanas</t>
         </is>
@@ -1342,17 +1324,17 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>6892.68</v>
+        <v>11310.26</v>
       </c>
       <c r="E43" t="n">
-        <v>10933.72</v>
+        <v>32998.05</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>43</v>
       </c>
-      <c r="B44" s="3" t="inlineStr">
+      <c r="B44" t="inlineStr">
         <is>
           <t>Ciências Humanas</t>
         </is>
@@ -1363,17 +1345,17 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>13006.61</v>
+        <v>16527.49</v>
       </c>
       <c r="E44" t="n">
-        <v>20632.11</v>
+        <v>49155.28</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>44</v>
       </c>
-      <c r="B45" s="3" t="inlineStr">
+      <c r="B45" t="inlineStr">
         <is>
           <t>Ciências Humanas</t>
         </is>
@@ -1384,17 +1366,17 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>3706.36</v>
+        <v>3824.47</v>
       </c>
       <c r="E45" t="n">
-        <v>5879.32</v>
+        <v>9123.51</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>45</v>
       </c>
-      <c r="B46" s="3" t="inlineStr">
+      <c r="B46" t="inlineStr">
         <is>
           <t>Ciências Humanas</t>
         </is>
@@ -1405,17 +1387,17 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>4776.32</v>
+        <v>5145.55</v>
       </c>
       <c r="E46" t="n">
-        <v>7576.57</v>
+        <v>12035.1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>46</v>
       </c>
-      <c r="B47" s="3" t="inlineStr">
+      <c r="B47" t="inlineStr">
         <is>
           <t>Ciências Humanas</t>
         </is>
@@ -1426,17 +1408,17 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>4449.33</v>
+        <v>4388.7</v>
       </c>
       <c r="E47" t="n">
-        <v>7057.87</v>
+        <v>9305.1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>47</v>
       </c>
-      <c r="B48" s="3" t="inlineStr">
+      <c r="B48" t="inlineStr">
         <is>
           <t>Ciências Humanas</t>
         </is>
@@ -1447,17 +1429,17 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>3623.37</v>
+        <v>3806.31</v>
       </c>
       <c r="E48" t="n">
-        <v>5747.68</v>
+        <v>9695.709999999999</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>48</v>
       </c>
-      <c r="B49" s="3" t="inlineStr">
+      <c r="B49" t="inlineStr">
         <is>
           <t>Ciências Humanas</t>
         </is>
@@ -1468,17 +1450,17 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>3229.97</v>
+        <v>3337.99</v>
       </c>
       <c r="E49" t="n">
-        <v>5123.64</v>
+        <v>7981.53</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>49</v>
       </c>
-      <c r="B50" s="3" t="inlineStr">
+      <c r="B50" t="inlineStr">
         <is>
           <t>Ciências Humanas</t>
         </is>
@@ -1489,17 +1471,17 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>6112.56</v>
+        <v>6501.14</v>
       </c>
       <c r="E50" t="n">
-        <v>9696.23</v>
+        <v>16164.1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>50</v>
       </c>
-      <c r="B51" s="3" t="inlineStr">
+      <c r="B51" t="inlineStr">
         <is>
           <t>Ciências Humanas</t>
         </is>
@@ -1510,17 +1492,17 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>3840.85</v>
+        <v>4078.33</v>
       </c>
       <c r="E51" t="n">
-        <v>6092.66</v>
+        <v>10745.4</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>51</v>
       </c>
-      <c r="B52" s="3" t="inlineStr">
+      <c r="B52" t="inlineStr">
         <is>
           <t>Ciências Humanas</t>
         </is>
@@ -1531,17 +1513,17 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>4579.83</v>
+        <v>4827.97</v>
       </c>
       <c r="E52" t="n">
-        <v>7264.88</v>
+        <v>11420.97</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>52</v>
       </c>
-      <c r="B53" s="3" t="inlineStr">
+      <c r="B53" t="inlineStr">
         <is>
           <t>Ciências Humanas</t>
         </is>
@@ -1552,17 +1534,17 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>2783.53</v>
+        <v>2901.14</v>
       </c>
       <c r="E53" t="n">
-        <v>4415.47</v>
+        <v>6589.75</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>53</v>
       </c>
-      <c r="B54" s="3" t="inlineStr">
+      <c r="B54" t="inlineStr">
         <is>
           <t>Ciências Humanas</t>
         </is>
@@ -1573,17 +1555,17 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>3431.5</v>
+        <v>3602.44</v>
       </c>
       <c r="E54" t="n">
-        <v>5443.32</v>
+        <v>8351.91</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>54</v>
       </c>
-      <c r="B55" s="3" t="inlineStr">
+      <c r="B55" t="inlineStr">
         <is>
           <t>Ciências Humanas</t>
         </is>
@@ -1594,17 +1576,17 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>4571.4</v>
+        <v>5229.51</v>
       </c>
       <c r="E55" t="n">
-        <v>7251.52</v>
+        <v>12797.28</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>55</v>
       </c>
-      <c r="B56" s="3" t="inlineStr">
+      <c r="B56" t="inlineStr">
         <is>
           <t>Ciências Humanas</t>
         </is>
@@ -1615,17 +1597,17 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>3982.77</v>
+        <v>4348.31</v>
       </c>
       <c r="E56" t="n">
-        <v>6317.78</v>
+        <v>11163.18</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>56</v>
       </c>
-      <c r="B57" s="3" t="inlineStr">
+      <c r="B57" t="inlineStr">
         <is>
           <t>Ciências Humanas</t>
         </is>
@@ -1636,17 +1618,17 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>2602.36</v>
+        <v>2730.95</v>
       </c>
       <c r="E57" t="n">
-        <v>4128.06</v>
+        <v>6507.55</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>57</v>
       </c>
-      <c r="B58" s="3" t="inlineStr">
+      <c r="B58" t="inlineStr">
         <is>
           <t>Ciências Humanas</t>
         </is>
@@ -1657,17 +1639,17 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>2253.89</v>
+        <v>2397.92</v>
       </c>
       <c r="E58" t="n">
-        <v>3575.3</v>
+        <v>4894.59</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>58</v>
       </c>
-      <c r="B59" s="3" t="inlineStr">
+      <c r="B59" t="inlineStr">
         <is>
           <t>Ciências Humanas</t>
         </is>
@@ -1678,17 +1660,17 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>3036.28</v>
+        <v>3175.14</v>
       </c>
       <c r="E59" t="n">
-        <v>4816.39</v>
+        <v>6809.83</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>59</v>
       </c>
-      <c r="B60" s="3" t="inlineStr">
+      <c r="B60" t="inlineStr">
         <is>
           <t>Ciências Humanas</t>
         </is>
@@ -1699,17 +1681,17 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>2489.33</v>
+        <v>2733.94</v>
       </c>
       <c r="E60" t="n">
-        <v>3948.77</v>
+        <v>6018.92</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>60</v>
       </c>
-      <c r="B61" s="3" t="inlineStr">
+      <c r="B61" t="inlineStr">
         <is>
           <t>Ciências Humanas</t>
         </is>
@@ -1720,17 +1702,17 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>4153.86</v>
+        <v>4409.14</v>
       </c>
       <c r="E61" t="n">
-        <v>6589.19</v>
+        <v>11264.96</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>61</v>
       </c>
-      <c r="B62" s="3" t="inlineStr">
+      <c r="B62" t="inlineStr">
         <is>
           <t>Ciências Humanas</t>
         </is>
@@ -1741,17 +1723,17 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>2752.06</v>
+        <v>2938.08</v>
       </c>
       <c r="E62" t="n">
-        <v>4365.53</v>
+        <v>5665.37</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>62</v>
       </c>
-      <c r="B63" s="3" t="inlineStr">
+      <c r="B63" t="inlineStr">
         <is>
           <t>Ciências Humanas</t>
         </is>
@@ -1762,10 +1744,10 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>1613.53</v>
+        <v>1717.83</v>
       </c>
       <c r="E63" t="n">
-        <v>2559.51</v>
+        <v>3258.46</v>
       </c>
     </row>
   </sheetData>
